--- a/data/normality_percent_change.xlsx
+++ b/data/normality_percent_change.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\Dropbox\PC\Desktop\MS Thesis\MS_Thesis_2023-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91625E4C-198B-4D0C-9CBE-1A04ABC00C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E4A098-E921-4773-AA32-19AE37DE1E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="6" xr2:uid="{EDB9D8F9-1D08-4631-A6EB-EA305B093C85}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{EDB9D8F9-1D08-4631-A6EB-EA305B093C85}"/>
   </bookViews>
   <sheets>
     <sheet name="total_chl_a" sheetId="1" r:id="rId1"/>
